--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_5_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-368911.4537759832</v>
+        <v>-371259.6026591738</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5860219.813005068</v>
+        <v>5860219.813005063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.22897194902947</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>253.485824164021</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>113.2870337730224</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>105.7617448159914</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>89.00389277357172</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>245.5853929315192</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>87.12574707908773</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>198.5424032384317</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>238.2793954832766</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1188268833588</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>125.8092116959089</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>22.28704139029342</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>411.3743830274884</v>
       </c>
       <c r="H11" t="n">
-        <v>299.2435417191563</v>
+        <v>299.2435417191554</v>
       </c>
       <c r="I11" t="n">
-        <v>59.02800318540989</v>
+        <v>59.02800318541003</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H12" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119259</v>
       </c>
       <c r="I12" t="n">
-        <v>17.03013564767504</v>
+        <v>17.03013564767511</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.6421372620749</v>
+        <v>132.642137262075</v>
       </c>
       <c r="T12" t="n">
         <v>191.6927782578487</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.2288547737337</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I13" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>98.06186232216696</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>156.1402970286759</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>144.0682052961839</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I14" t="n">
-        <v>59.02800318540989</v>
+        <v>59.02800318541003</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H15" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119259</v>
       </c>
       <c r="I15" t="n">
-        <v>17.03013564767504</v>
+        <v>17.03013564767511</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>132.6421372620749</v>
+        <v>132.642137262075</v>
       </c>
       <c r="T15" t="n">
         <v>191.6927782578487</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2288547737337</v>
+        <v>123.9235256511022</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>98.06186232216696</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>220.4165116571834</v>
       </c>
       <c r="U16" t="n">
-        <v>202.1717037871508</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I17" t="n">
-        <v>59.02800318540989</v>
+        <v>59.02800318541003</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H18" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119259</v>
       </c>
       <c r="I18" t="n">
-        <v>17.03013564767504</v>
+        <v>17.03013564767511</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.6421372620749</v>
+        <v>132.642137262075</v>
       </c>
       <c r="T18" t="n">
         <v>191.6927782578487</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.14906298150115</v>
+        <v>70.59800542962876</v>
       </c>
       <c r="S19" t="n">
         <v>193.307572319536</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I20" t="n">
-        <v>59.02800318540989</v>
+        <v>59.02800318541003</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H21" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119259</v>
       </c>
       <c r="I21" t="n">
-        <v>17.03013564767504</v>
+        <v>17.03013564767511</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>132.6421372620749</v>
+        <v>132.642137262075</v>
       </c>
       <c r="T21" t="n">
         <v>191.6927782578487</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2288547737337</v>
+        <v>41.13483002358117</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5602830177929</v>
+        <v>146.5602830177928</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T22" t="n">
-        <v>182.1965810754938</v>
+        <v>220.4165116571834</v>
       </c>
       <c r="U22" t="n">
         <v>286.2229134700513</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>299.2435417191563</v>
       </c>
       <c r="I23" t="n">
-        <v>59.02800318540989</v>
+        <v>59.02800318541003</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>135.2416622125797</v>
       </c>
       <c r="H24" t="n">
-        <v>91.93595037119258</v>
+        <v>91.93595037119259</v>
       </c>
       <c r="I24" t="n">
-        <v>17.03013564767504</v>
+        <v>17.03013564767511</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>132.6421372620749</v>
+        <v>132.642137262075</v>
       </c>
       <c r="T24" t="n">
         <v>191.6927782578487</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.377152898547</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.2288547737336</v>
       </c>
       <c r="H25" t="n">
-        <v>78.11152813418015</v>
+        <v>146.5602830177929</v>
       </c>
       <c r="I25" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.4165116571834</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.81472657146828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>19.36824379237569</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>18.2687961020394</v>
+        <v>57.02146927219756</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.41670903609992</v>
+        <v>202.4425172951286</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124534</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3518,10 +3518,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575755</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="42">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.806695110112</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2685.806695110112</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2467.172028082175</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2467.172028082175</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2467.172028082175</v>
       </c>
       <c r="W2" t="n">
-        <v>1637.643464250441</v>
+        <v>2467.172028082175</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.643464250441</v>
+        <v>2093.706269821095</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.643464250441</v>
+        <v>1703.566937845283</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.4909684781774</v>
+        <v>329.7728273507103</v>
       </c>
       <c r="C4" t="n">
-        <v>318.4909684781774</v>
+        <v>329.7728273507103</v>
       </c>
       <c r="D4" t="n">
-        <v>168.3743290658416</v>
+        <v>329.7728273507103</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>329.7728273507103</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>329.7728273507103</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>160.7730270890427</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>160.7730270890427</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>329.7728273507103</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>561.8097119156844</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>143.8459038138712</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2140.292562720626</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610022</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610022</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1515.02307474038</v>
+        <v>1481.844651382451</v>
       </c>
       <c r="C8" t="n">
-        <v>1146.060557799969</v>
+        <v>1481.844651382451</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>1123.578952775701</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>1123.578952775701</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>712.5930479860933</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>294.6292398842802</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2473.313505706939</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2473.313505706939</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2219.551720345031</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>1888.48883300146</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1888.48883300146</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>1515.02307474038</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y8" t="n">
-        <v>1515.02307474038</v>
+        <v>1481.844651382451</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598707</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>350.0227938960815</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>350.0227938960815</v>
       </c>
       <c r="F10" t="n">
         <v>222.942782082032</v>
@@ -4972,40 +4972,40 @@
         <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005478</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>450.9323329800494</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>500.1394333084172</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>500.1394333084172</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2397.702401960704</v>
+        <v>2397.702401960705</v>
       </c>
       <c r="C11" t="n">
         <v>2028.739885020293</v>
       </c>
       <c r="D11" t="n">
-        <v>1670.474186413542</v>
+        <v>1670.474186413543</v>
       </c>
       <c r="E11" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815299</v>
       </c>
       <c r="F11" t="n">
-        <v>873.7000290256904</v>
+        <v>873.700029025691</v>
       </c>
       <c r="G11" t="n">
-        <v>458.1703491999443</v>
+        <v>458.1703491999435</v>
       </c>
       <c r="H11" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432209</v>
       </c>
       <c r="I11" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J11" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489105</v>
       </c>
       <c r="K11" t="n">
-        <v>844.8439030962311</v>
+        <v>844.8439030962304</v>
       </c>
       <c r="L11" t="n">
-        <v>1638.644317482089</v>
+        <v>1638.644317482088</v>
       </c>
       <c r="M11" t="n">
-        <v>2538.506772924682</v>
+        <v>2538.50677292468</v>
       </c>
       <c r="N11" t="n">
-        <v>3438.297946127755</v>
+        <v>3005.324490959889</v>
       </c>
       <c r="O11" t="n">
-        <v>4242.757598079067</v>
+        <v>3809.7841429112</v>
       </c>
       <c r="P11" t="n">
-        <v>4583.234543101466</v>
+        <v>4458.697461112275</v>
       </c>
       <c r="Q11" t="n">
-        <v>4783.127819896831</v>
+        <v>4783.127819896832</v>
       </c>
       <c r="R11" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069627</v>
       </c>
       <c r="S11" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474679</v>
       </c>
       <c r="T11" t="n">
-        <v>4485.305929975226</v>
+        <v>4485.305929975227</v>
       </c>
       <c r="U11" t="n">
-        <v>4231.738874875403</v>
+        <v>4231.738874875404</v>
       </c>
       <c r="V11" t="n">
-        <v>3900.675987531832</v>
+        <v>3900.675987531833</v>
       </c>
       <c r="W11" t="n">
-        <v>3547.907332261718</v>
+        <v>3547.907332261719</v>
       </c>
       <c r="X11" t="n">
-        <v>3174.441574000638</v>
+        <v>3174.441574000639</v>
       </c>
       <c r="Y11" t="n">
-        <v>2784.302242024826</v>
+        <v>2784.302242024827</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>972.1138448854193</v>
+        <v>972.1138448854196</v>
       </c>
       <c r="C12" t="n">
-        <v>797.6608156042923</v>
+        <v>797.6608156042926</v>
       </c>
       <c r="D12" t="n">
-        <v>648.7264059430411</v>
+        <v>648.7264059430413</v>
       </c>
       <c r="E12" t="n">
-        <v>489.4889509375856</v>
+        <v>489.4889509375857</v>
       </c>
       <c r="F12" t="n">
-        <v>342.9543929644706</v>
+        <v>342.9543929644707</v>
       </c>
       <c r="G12" t="n">
-        <v>206.3466533558042</v>
+        <v>206.3466533558044</v>
       </c>
       <c r="H12" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212664</v>
       </c>
       <c r="I12" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J12" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304505</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8504787502424</v>
+        <v>366.8504787502419</v>
       </c>
       <c r="L12" t="n">
-        <v>681.48780960007</v>
+        <v>681.4878096000691</v>
       </c>
       <c r="M12" t="n">
-        <v>1444.200399947359</v>
+        <v>1068.01160238994</v>
       </c>
       <c r="N12" t="n">
-        <v>1855.362972310685</v>
+        <v>1479.174174753266</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.276603695803</v>
+        <v>2209.276603695804</v>
       </c>
       <c r="P12" t="n">
-        <v>2473.990428215981</v>
+        <v>2473.990428215982</v>
       </c>
       <c r="Q12" t="n">
         <v>2601.025413179288</v>
@@ -5163,7 +5163,7 @@
         <v>1348.089480670441</v>
       </c>
       <c r="Y12" t="n">
-        <v>1140.329181905487</v>
+        <v>1140.329181905488</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>665.716187690306</v>
+        <v>581.1647067611444</v>
       </c>
       <c r="C13" t="n">
-        <v>496.7800047623991</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="D13" t="n">
-        <v>346.6633653500634</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="E13" t="n">
-        <v>346.6633653500634</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="F13" t="n">
-        <v>199.773417852153</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="G13" t="n">
-        <v>199.773417852153</v>
+        <v>244.320589718355</v>
       </c>
       <c r="H13" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="I13" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J13" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445495</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720049</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070644</v>
       </c>
       <c r="M13" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290186</v>
       </c>
       <c r="N13" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496552</v>
       </c>
       <c r="O13" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521202</v>
       </c>
       <c r="P13" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470089</v>
       </c>
       <c r="Q13" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600037</v>
       </c>
       <c r="R13" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.72994341603</v>
       </c>
       <c r="S13" t="n">
-        <v>1757.782329600039</v>
+        <v>1501.012471669892</v>
       </c>
       <c r="T13" t="n">
-        <v>1757.782329600039</v>
+        <v>1501.012471669892</v>
       </c>
       <c r="U13" t="n">
-        <v>1612.258889906924</v>
+        <v>1501.012471669892</v>
       </c>
       <c r="V13" t="n">
-        <v>1357.574401701037</v>
+        <v>1501.012471669892</v>
       </c>
       <c r="W13" t="n">
-        <v>1068.157231664076</v>
+        <v>1211.595301632932</v>
       </c>
       <c r="X13" t="n">
-        <v>1068.157231664076</v>
+        <v>983.6057507349143</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.3646525205457</v>
+        <v>762.8131715913842</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C14" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D14" t="n">
         <v>1670.474186413542</v>
@@ -5264,64 +5264,64 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F14" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256904</v>
       </c>
       <c r="G14" t="n">
-        <v>458.1703491999443</v>
+        <v>458.1703491999444</v>
       </c>
       <c r="H14" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432209</v>
       </c>
       <c r="I14" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J14" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489105</v>
       </c>
       <c r="K14" t="n">
-        <v>536.4075299175543</v>
+        <v>844.8439030962304</v>
       </c>
       <c r="L14" t="n">
-        <v>1330.207944303413</v>
+        <v>1638.644317482088</v>
       </c>
       <c r="M14" t="n">
-        <v>2230.070399746005</v>
+        <v>2538.50677292468</v>
       </c>
       <c r="N14" t="n">
-        <v>3129.861572949078</v>
+        <v>3438.297946127753</v>
       </c>
       <c r="O14" t="n">
-        <v>3934.32122490039</v>
+        <v>4242.757598079063</v>
       </c>
       <c r="P14" t="n">
-        <v>4583.234543101466</v>
+        <v>4583.234543101468</v>
       </c>
       <c r="Q14" t="n">
-        <v>4783.127819896831</v>
+        <v>4783.127819896832</v>
       </c>
       <c r="R14" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069627</v>
       </c>
       <c r="S14" t="n">
-        <v>4693.285200474678</v>
+        <v>4693.285200474679</v>
       </c>
       <c r="T14" t="n">
         <v>4485.305929975226</v>
       </c>
       <c r="U14" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V14" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W14" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X14" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y14" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>972.1138448854193</v>
+        <v>972.1138448854196</v>
       </c>
       <c r="C15" t="n">
-        <v>797.6608156042923</v>
+        <v>797.6608156042926</v>
       </c>
       <c r="D15" t="n">
-        <v>648.7264059430411</v>
+        <v>648.7264059430413</v>
       </c>
       <c r="E15" t="n">
-        <v>489.4889509375856</v>
+        <v>489.4889509375857</v>
       </c>
       <c r="F15" t="n">
-        <v>342.9543929644706</v>
+        <v>342.9543929644707</v>
       </c>
       <c r="G15" t="n">
-        <v>206.3466533558042</v>
+        <v>206.3466533558044</v>
       </c>
       <c r="H15" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212664</v>
       </c>
       <c r="I15" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J15" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304505</v>
       </c>
       <c r="K15" t="n">
-        <v>366.8504787502424</v>
+        <v>628.6710633926947</v>
       </c>
       <c r="L15" t="n">
-        <v>1048.619751450495</v>
+        <v>943.3083942425219</v>
       </c>
       <c r="M15" t="n">
-        <v>1435.143544240367</v>
+        <v>1329.832187032393</v>
       </c>
       <c r="N15" t="n">
-        <v>1846.306116603693</v>
+        <v>1740.994759395719</v>
       </c>
       <c r="O15" t="n">
-        <v>2200.21974798881</v>
+        <v>2094.908390780836</v>
       </c>
       <c r="P15" t="n">
-        <v>2473.990428215981</v>
+        <v>2359.622215301014</v>
       </c>
       <c r="Q15" t="n">
         <v>2601.025413179288</v>
@@ -5400,7 +5400,7 @@
         <v>1348.089480670441</v>
       </c>
       <c r="Y15" t="n">
-        <v>1140.329181905487</v>
+        <v>1140.329181905488</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>411.0777814141854</v>
+        <v>664.2989092341153</v>
       </c>
       <c r="C16" t="n">
-        <v>411.0777814141854</v>
+        <v>664.2989092341153</v>
       </c>
       <c r="D16" t="n">
-        <v>411.0777814141854</v>
+        <v>664.2989092341153</v>
       </c>
       <c r="E16" t="n">
-        <v>411.0777814141854</v>
+        <v>516.3858156517222</v>
       </c>
       <c r="F16" t="n">
-        <v>264.1878339162751</v>
+        <v>369.4958681538118</v>
       </c>
       <c r="G16" t="n">
-        <v>96.27989980139252</v>
+        <v>244.320589718355</v>
       </c>
       <c r="H16" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="I16" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J16" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445495</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8234703720053</v>
+        <v>307.8234703720049</v>
       </c>
       <c r="L16" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070644</v>
       </c>
       <c r="M16" t="n">
-        <v>907.1445306290195</v>
+        <v>907.1445306290188</v>
       </c>
       <c r="N16" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496552</v>
       </c>
       <c r="O16" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521206</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470094</v>
       </c>
       <c r="Q16" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600042</v>
       </c>
       <c r="R16" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.729943416034</v>
       </c>
       <c r="S16" t="n">
-        <v>1757.782329600039</v>
+        <v>1658.729943416034</v>
       </c>
       <c r="T16" t="n">
-        <v>1535.139388532177</v>
+        <v>1436.087002348172</v>
       </c>
       <c r="U16" t="n">
-        <v>1330.925546322933</v>
+        <v>1146.972948338019</v>
       </c>
       <c r="V16" t="n">
-        <v>1330.925546322933</v>
+        <v>892.2884601321326</v>
       </c>
       <c r="W16" t="n">
-        <v>1041.508376285973</v>
+        <v>892.2884601321326</v>
       </c>
       <c r="X16" t="n">
-        <v>813.5188253879553</v>
+        <v>664.2989092341153</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.7262462444252</v>
+        <v>664.2989092341153</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2397.702401960704</v>
       </c>
       <c r="C17" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D17" t="n">
         <v>1670.474186413542</v>
@@ -5501,61 +5501,61 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F17" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256906</v>
       </c>
       <c r="G17" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999444</v>
       </c>
       <c r="H17" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432209</v>
       </c>
       <c r="I17" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J17" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489105</v>
       </c>
       <c r="K17" t="n">
-        <v>771.2340873221524</v>
+        <v>844.8439030962304</v>
       </c>
       <c r="L17" t="n">
-        <v>1565.034501708011</v>
+        <v>1638.644317482088</v>
       </c>
       <c r="M17" t="n">
-        <v>2019.878558992699</v>
+        <v>2538.50677292468</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.669732195773</v>
+        <v>3438.297946127753</v>
       </c>
       <c r="O17" t="n">
-        <v>3724.129384147084</v>
+        <v>4242.757598079063</v>
       </c>
       <c r="P17" t="n">
-        <v>4373.042702348161</v>
+        <v>4583.234543101468</v>
       </c>
       <c r="Q17" t="n">
-        <v>4783.127819896831</v>
+        <v>4783.127819896832</v>
       </c>
       <c r="R17" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069627</v>
       </c>
       <c r="S17" t="n">
         <v>4693.285200474678</v>
       </c>
       <c r="T17" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U17" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V17" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W17" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X17" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y17" t="n">
         <v>2784.302242024826</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>972.1138448854193</v>
+        <v>972.1138448854196</v>
       </c>
       <c r="C18" t="n">
-        <v>797.6608156042923</v>
+        <v>797.6608156042926</v>
       </c>
       <c r="D18" t="n">
-        <v>648.7264059430411</v>
+        <v>648.7264059430413</v>
       </c>
       <c r="E18" t="n">
-        <v>489.4889509375856</v>
+        <v>489.4889509375857</v>
       </c>
       <c r="F18" t="n">
-        <v>342.9543929644706</v>
+        <v>342.9543929644707</v>
       </c>
       <c r="G18" t="n">
-        <v>206.3466533558042</v>
+        <v>206.3466533558044</v>
       </c>
       <c r="H18" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212664</v>
       </c>
       <c r="I18" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J18" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304505</v>
       </c>
       <c r="K18" t="n">
-        <v>535.0627614491691</v>
+        <v>366.8504787502419</v>
       </c>
       <c r="L18" t="n">
-        <v>849.7000922989967</v>
+        <v>681.4878096000691</v>
       </c>
       <c r="M18" t="n">
-        <v>1236.223885088869</v>
+        <v>1068.01160238994</v>
       </c>
       <c r="N18" t="n">
-        <v>1647.386457452195</v>
+        <v>1479.174174753266</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.300088837312</v>
+        <v>1833.087806138383</v>
       </c>
       <c r="P18" t="n">
-        <v>2266.013913357491</v>
+        <v>2413.079771612099</v>
       </c>
       <c r="Q18" t="n">
         <v>2601.025413179288</v>
@@ -5637,7 +5637,7 @@
         <v>1348.089480670441</v>
       </c>
       <c r="Y18" t="n">
-        <v>1140.329181905487</v>
+        <v>1140.329181905488</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>243.1698472993029</v>
+        <v>496.7800047623991</v>
       </c>
       <c r="C19" t="n">
-        <v>243.1698472993029</v>
+        <v>496.7800047623991</v>
       </c>
       <c r="D19" t="n">
-        <v>243.1698472993029</v>
+        <v>346.6633653500634</v>
       </c>
       <c r="E19" t="n">
-        <v>243.1698472993029</v>
+        <v>346.6633653500634</v>
       </c>
       <c r="F19" t="n">
-        <v>96.27989980139252</v>
+        <v>199.7734178521531</v>
       </c>
       <c r="G19" t="n">
-        <v>96.27989980139252</v>
+        <v>199.7734178521531</v>
       </c>
       <c r="H19" t="n">
-        <v>96.27989980139252</v>
+        <v>199.7734178521531</v>
       </c>
       <c r="I19" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J19" t="n">
         <v>127.1906975445495</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8234703720051</v>
+        <v>307.8234703720079</v>
       </c>
       <c r="L19" t="n">
-        <v>594.497664507065</v>
+        <v>594.4976645070676</v>
       </c>
       <c r="M19" t="n">
-        <v>907.1445306290194</v>
+        <v>907.1445306290216</v>
       </c>
       <c r="N19" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496555</v>
       </c>
       <c r="O19" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521205</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470092</v>
       </c>
       <c r="Q19" t="n">
-        <v>1757.782329600038</v>
+        <v>1757.78232960004</v>
       </c>
       <c r="R19" t="n">
-        <v>1722.27822557832</v>
+        <v>1686.471213004456</v>
       </c>
       <c r="S19" t="n">
-        <v>1527.018051518183</v>
+        <v>1491.211038944318</v>
       </c>
       <c r="T19" t="n">
-        <v>1304.375110450321</v>
+        <v>1268.568097876456</v>
       </c>
       <c r="U19" t="n">
-        <v>1015.261056440168</v>
+        <v>979.4540438663037</v>
       </c>
       <c r="V19" t="n">
-        <v>760.5765682342809</v>
+        <v>724.7695556604165</v>
       </c>
       <c r="W19" t="n">
-        <v>471.1593981973203</v>
+        <v>724.7695556604165</v>
       </c>
       <c r="X19" t="n">
-        <v>243.1698472993029</v>
+        <v>496.7800047623991</v>
       </c>
       <c r="Y19" t="n">
-        <v>243.1698472993029</v>
+        <v>496.7800047623991</v>
       </c>
     </row>
     <row r="20">
@@ -5732,49 +5732,49 @@
         <v>2028.739885020293</v>
       </c>
       <c r="D20" t="n">
-        <v>1670.474186413542</v>
+        <v>1670.474186413543</v>
       </c>
       <c r="E20" t="n">
-        <v>1284.685933815298</v>
+        <v>1284.685933815299</v>
       </c>
       <c r="F20" t="n">
-        <v>873.7000290256902</v>
+        <v>873.700029025691</v>
       </c>
       <c r="G20" t="n">
-        <v>458.1703491999443</v>
+        <v>458.1703491999444</v>
       </c>
       <c r="H20" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432209</v>
       </c>
       <c r="I20" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J20" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489105</v>
       </c>
       <c r="K20" t="n">
-        <v>844.8439030962311</v>
+        <v>844.8439030962304</v>
       </c>
       <c r="L20" t="n">
-        <v>1638.644317482089</v>
+        <v>1638.644317482088</v>
       </c>
       <c r="M20" t="n">
-        <v>2538.506772924682</v>
+        <v>2538.50677292468</v>
       </c>
       <c r="N20" t="n">
-        <v>3438.297946127755</v>
+        <v>3438.297946127753</v>
       </c>
       <c r="O20" t="n">
-        <v>4242.757598079067</v>
+        <v>4242.757598079063</v>
       </c>
       <c r="P20" t="n">
-        <v>4583.234543101466</v>
+        <v>4583.234543101468</v>
       </c>
       <c r="Q20" t="n">
-        <v>4783.127819896831</v>
+        <v>4783.127819896832</v>
       </c>
       <c r="R20" t="n">
-        <v>4813.994990069626</v>
+        <v>4813.994990069627</v>
       </c>
       <c r="S20" t="n">
         <v>4693.285200474678</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>972.1138448854193</v>
+        <v>972.1138448854196</v>
       </c>
       <c r="C21" t="n">
-        <v>797.6608156042923</v>
+        <v>797.6608156042926</v>
       </c>
       <c r="D21" t="n">
-        <v>648.7264059430411</v>
+        <v>648.7264059430413</v>
       </c>
       <c r="E21" t="n">
-        <v>489.4889509375856</v>
+        <v>489.4889509375857</v>
       </c>
       <c r="F21" t="n">
-        <v>342.9543929644706</v>
+        <v>342.9543929644707</v>
       </c>
       <c r="G21" t="n">
-        <v>206.3466533558042</v>
+        <v>206.3466533558044</v>
       </c>
       <c r="H21" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212664</v>
       </c>
       <c r="I21" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J21" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304505</v>
       </c>
       <c r="K21" t="n">
-        <v>535.0627614491691</v>
+        <v>366.8504787502419</v>
       </c>
       <c r="L21" t="n">
-        <v>849.7000922989967</v>
+        <v>681.4878096000691</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.223885088869</v>
+        <v>1068.01160238994</v>
       </c>
       <c r="N21" t="n">
-        <v>1647.386457452195</v>
+        <v>1479.174174753266</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.300088837312</v>
+        <v>1833.087806138383</v>
       </c>
       <c r="P21" t="n">
-        <v>2266.013913357491</v>
+        <v>2413.079771612099</v>
       </c>
       <c r="Q21" t="n">
         <v>2601.025413179288</v>
@@ -5874,7 +5874,7 @@
         <v>1348.089480670441</v>
       </c>
       <c r="Y21" t="n">
-        <v>1140.329181905487</v>
+        <v>1140.329181905488</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>581.1647067611444</v>
+        <v>285.8709230755077</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2285238332375</v>
+        <v>285.8709230755077</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2285238332375</v>
+        <v>285.8709230755077</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2285238332375</v>
+        <v>285.8709230755077</v>
       </c>
       <c r="F22" t="n">
-        <v>412.2285238332375</v>
+        <v>285.8709230755077</v>
       </c>
       <c r="G22" t="n">
         <v>244.320589718355</v>
       </c>
       <c r="H22" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="I22" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J22" t="n">
-        <v>127.1906975445496</v>
+        <v>127.1906975445493</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8234703720052</v>
+        <v>307.8234703720047</v>
       </c>
       <c r="L22" t="n">
-        <v>594.4976645070651</v>
+        <v>594.4976645070644</v>
       </c>
       <c r="M22" t="n">
-        <v>907.1445306290193</v>
+        <v>907.1445306290188</v>
       </c>
       <c r="N22" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496552</v>
       </c>
       <c r="O22" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521202</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.004386470089</v>
       </c>
       <c r="Q22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600037</v>
       </c>
       <c r="R22" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600037</v>
       </c>
       <c r="S22" t="n">
-        <v>1757.782329600039</v>
+        <v>1562.5221555399</v>
       </c>
       <c r="T22" t="n">
-        <v>1573.745379018732</v>
+        <v>1339.879214472038</v>
       </c>
       <c r="U22" t="n">
-        <v>1284.631325008579</v>
+        <v>1050.765160461885</v>
       </c>
       <c r="V22" t="n">
-        <v>1029.946836802692</v>
+        <v>796.0806722559983</v>
       </c>
       <c r="W22" t="n">
-        <v>1029.946836802692</v>
+        <v>506.6635022190378</v>
       </c>
       <c r="X22" t="n">
-        <v>801.9572859046746</v>
+        <v>506.6635022190378</v>
       </c>
       <c r="Y22" t="n">
-        <v>581.1647067611444</v>
+        <v>285.8709230755077</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2397.702401960703</v>
+        <v>2397.702401960704</v>
       </c>
       <c r="C23" t="n">
-        <v>2028.739885020292</v>
+        <v>2028.739885020293</v>
       </c>
       <c r="D23" t="n">
         <v>1670.474186413542</v>
@@ -5975,37 +5975,37 @@
         <v>1284.685933815298</v>
       </c>
       <c r="F23" t="n">
-        <v>873.7000290256901</v>
+        <v>873.7000290256904</v>
       </c>
       <c r="G23" t="n">
-        <v>458.1703491999442</v>
+        <v>458.1703491999444</v>
       </c>
       <c r="H23" t="n">
-        <v>155.9041454432207</v>
+        <v>155.9041454432208</v>
       </c>
       <c r="I23" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J23" t="n">
-        <v>247.1244892489108</v>
+        <v>247.1244892489105</v>
       </c>
       <c r="K23" t="n">
-        <v>844.8439030962311</v>
+        <v>844.8439030962304</v>
       </c>
       <c r="L23" t="n">
-        <v>1638.644317482089</v>
+        <v>1638.644317482088</v>
       </c>
       <c r="M23" t="n">
-        <v>2538.506772924682</v>
+        <v>2538.50677292468</v>
       </c>
       <c r="N23" t="n">
-        <v>3438.297946127755</v>
+        <v>3438.297946127753</v>
       </c>
       <c r="O23" t="n">
-        <v>4242.757598079067</v>
+        <v>4242.757598079063</v>
       </c>
       <c r="P23" t="n">
-        <v>4583.234543101466</v>
+        <v>4583.234543101467</v>
       </c>
       <c r="Q23" t="n">
         <v>4783.127819896831</v>
@@ -6017,22 +6017,22 @@
         <v>4693.285200474678</v>
       </c>
       <c r="T23" t="n">
-        <v>4485.305929975225</v>
+        <v>4485.305929975226</v>
       </c>
       <c r="U23" t="n">
-        <v>4231.738874875402</v>
+        <v>4231.738874875403</v>
       </c>
       <c r="V23" t="n">
-        <v>3900.675987531831</v>
+        <v>3900.675987531832</v>
       </c>
       <c r="W23" t="n">
-        <v>3547.907332261717</v>
+        <v>3547.907332261718</v>
       </c>
       <c r="X23" t="n">
-        <v>3174.441574000637</v>
+        <v>3174.441574000638</v>
       </c>
       <c r="Y23" t="n">
-        <v>2784.302242024825</v>
+        <v>2784.302242024826</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>972.1138448854193</v>
+        <v>972.1138448854196</v>
       </c>
       <c r="C24" t="n">
-        <v>797.6608156042923</v>
+        <v>797.6608156042926</v>
       </c>
       <c r="D24" t="n">
-        <v>648.7264059430411</v>
+        <v>648.7264059430413</v>
       </c>
       <c r="E24" t="n">
-        <v>489.4889509375856</v>
+        <v>489.4889509375857</v>
       </c>
       <c r="F24" t="n">
-        <v>342.9543929644706</v>
+        <v>342.9543929644707</v>
       </c>
       <c r="G24" t="n">
-        <v>206.3466533558042</v>
+        <v>206.3466533558044</v>
       </c>
       <c r="H24" t="n">
-        <v>113.4820570212663</v>
+        <v>113.4820570212664</v>
       </c>
       <c r="I24" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J24" t="n">
-        <v>167.3040569304507</v>
+        <v>167.3040569304505</v>
       </c>
       <c r="K24" t="n">
-        <v>535.0627614491691</v>
+        <v>628.6710633926947</v>
       </c>
       <c r="L24" t="n">
-        <v>849.7000922989967</v>
+        <v>943.3083942425219</v>
       </c>
       <c r="M24" t="n">
-        <v>1236.223885088869</v>
+        <v>1329.832187032393</v>
       </c>
       <c r="N24" t="n">
-        <v>1647.386457452195</v>
+        <v>1740.994759395719</v>
       </c>
       <c r="O24" t="n">
-        <v>2001.300088837312</v>
+        <v>2094.908390780836</v>
       </c>
       <c r="P24" t="n">
-        <v>2266.013913357491</v>
+        <v>2359.622215301014</v>
       </c>
       <c r="Q24" t="n">
         <v>2601.025413179288</v>
@@ -6111,7 +6111,7 @@
         <v>1348.089480670441</v>
       </c>
       <c r="Y24" t="n">
-        <v>1140.329181905487</v>
+        <v>1140.329181905488</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>278.6739513210216</v>
+        <v>701.923676279175</v>
       </c>
       <c r="C25" t="n">
-        <v>278.6739513210216</v>
+        <v>701.923676279175</v>
       </c>
       <c r="D25" t="n">
-        <v>278.6739513210216</v>
+        <v>701.923676279175</v>
       </c>
       <c r="E25" t="n">
-        <v>278.6739513210216</v>
+        <v>559.1184713311478</v>
       </c>
       <c r="F25" t="n">
-        <v>278.6739513210216</v>
+        <v>412.2285238332375</v>
       </c>
       <c r="G25" t="n">
-        <v>278.6739513210216</v>
+        <v>244.320589718355</v>
       </c>
       <c r="H25" t="n">
-        <v>199.773417852153</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="I25" t="n">
-        <v>96.27989980139252</v>
+        <v>96.27989980139253</v>
       </c>
       <c r="J25" t="n">
         <v>127.1906975445496</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8234703720051</v>
+        <v>307.823470372005</v>
       </c>
       <c r="L25" t="n">
-        <v>594.497664507065</v>
+        <v>594.4976645070647</v>
       </c>
       <c r="M25" t="n">
-        <v>907.1445306290193</v>
+        <v>907.1445306290188</v>
       </c>
       <c r="N25" t="n">
-        <v>1217.791969496553</v>
+        <v>1217.791969496552</v>
       </c>
       <c r="O25" t="n">
-        <v>1488.708863521203</v>
+        <v>1488.708863521202</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.004386470091</v>
+        <v>1697.00438647009</v>
       </c>
       <c r="Q25" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600037</v>
       </c>
       <c r="R25" t="n">
-        <v>1757.782329600039</v>
+        <v>1757.782329600037</v>
       </c>
       <c r="S25" t="n">
-        <v>1562.522155539901</v>
+        <v>1757.782329600037</v>
       </c>
       <c r="T25" t="n">
-        <v>1339.879214472039</v>
+        <v>1535.139388532175</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.765160461887</v>
+        <v>1246.025334522022</v>
       </c>
       <c r="V25" t="n">
-        <v>796.0806722559996</v>
+        <v>991.3408463161355</v>
       </c>
       <c r="W25" t="n">
-        <v>506.6635022190389</v>
+        <v>701.923676279175</v>
       </c>
       <c r="X25" t="n">
-        <v>278.6739513210216</v>
+        <v>701.923676279175</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.6739513210216</v>
+        <v>701.923676279175</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,16 +6227,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>806.161341878638</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531993</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,7 +6333,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6342,13 +6342,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>481.6968904858347</v>
+        <v>540.4807149410333</v>
       </c>
       <c r="C28" t="n">
-        <v>481.6968904858347</v>
+        <v>540.4807149410333</v>
       </c>
       <c r="D28" t="n">
-        <v>411.1769646560686</v>
+        <v>390.3640755286976</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736755</v>
+        <v>242.4509819463046</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1936.779583486142</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1715.012968055668</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1715.012968055668</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1460.328479849781</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1170.91130981282</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>942.9217589148031</v>
       </c>
       <c r="Y28" t="n">
-        <v>481.6968904858347</v>
+        <v>722.129179771273</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142067</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282341</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.904311342304</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C31" t="n">
-        <v>260.904311342304</v>
+        <v>300.048425655595</v>
       </c>
       <c r="D31" t="n">
-        <v>260.904311342304</v>
+        <v>300.048425655595</v>
       </c>
       <c r="E31" t="n">
         <v>242.4509819463048</v>
@@ -6622,10 +6622,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6640,10 +6640,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
         <v>1764.65758193153</v>
@@ -6655,16 +6655,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838515</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858342</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.904311342304</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6695,55 +6695,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6874,34 +6874,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501055</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
         <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>444.9123359039152</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6968,13 +6968,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7017,10 +7017,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774092</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819756</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7099,7 +7099,7 @@
         <v>437.6816203490195</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499222</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,25 +7172,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>387.79385975162</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>721.6132334414665</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1172.647446689875</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M38" t="n">
-        <v>2151.197749519704</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.950021746351</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7199,25 +7199,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774096</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430898</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932527</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7333,7 +7333,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
         <v>800.7468040499223</v>
@@ -7360,7 +7360,7 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
         <v>1725.799256195774</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O41" t="n">
         <v>4010.914672075805</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7494,7 +7494,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7637,7 +7637,7 @@
         <v>850.2139837551622</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>1770.231306037953</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N44" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7716,7 +7716,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,16 +8699,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>10.24681607180889</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>125.7950323123161</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8775,13 +8775,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>379.9886844014316</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>379.988684401435</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356354</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>12.59352047149122</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>10.24681607181498</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>9.148339097972553</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>115.5234473888558</v>
       </c>
       <c r="R15" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356354</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,13 +9164,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>249.7920633044187</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,10 +9179,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>10.24681607181498</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9113966655826</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>61.52591576149743</v>
       </c>
       <c r="R18" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356354</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>10.24681607180889</v>
+        <v>10.24681607181498</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>169.9113966655826</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>61.52591576149743</v>
       </c>
       <c r="R21" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356354</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>10.24681607180889</v>
+        <v>10.24681607181407</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>169.9113966655826</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>115.5234473888558</v>
       </c>
       <c r="R24" t="n">
-        <v>15.1801237835634</v>
+        <v>15.18012378356354</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>189.7998007892643</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,10 +9884,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>104.3976710547476</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>288.0478149561031</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>98.06186232216689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.307572319536</v>
+        <v>37.16727529086003</v>
       </c>
       <c r="T13" t="n">
         <v>220.4165116571834</v>
       </c>
       <c r="U13" t="n">
-        <v>142.1547081738674</v>
+        <v>286.2229134700513</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>42.30532912263146</v>
       </c>
       <c r="H16" t="n">
-        <v>146.5602830177929</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>102.4585828702529</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>98.06186232216689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>193.307572319536</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>84.05120968290052</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,7 +23908,7 @@
         <v>146.5602830177929</v>
       </c>
       <c r="I19" t="n">
-        <v>102.4585828702529</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>62.91279934066574</v>
+        <v>27.4638568925382</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>125.0940247501525</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.06186232216689</v>
+        <v>98.06186232216692</v>
       </c>
       <c r="S22" t="n">
-        <v>193.307572319536</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>38.21993058168957</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>5.056809748022147</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2288547737337</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>68.44875488361272</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>102.4585828702529</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.06186232216689</v>
+        <v>98.06186232216693</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>193.307572319536</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>78.80074644674407</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,13 +24649,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>170.4007815390662</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>128.1651665445298</v>
+        <v>89.41249337437161</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>182.1679443159949</v>
+        <v>16.14213605696617</v>
       </c>
     </row>
     <row r="35">
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.125499693443999e-12</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1149488.987512169</v>
+        <v>1149488.98751217</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1149488.98751217</v>
+        <v>1149488.987512169</v>
       </c>
     </row>
     <row r="10">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="C2" t="n">
         <v>266838.5752058922</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="D2" t="n">
-        <v>266838.5752058922</v>
-      </c>
       <c r="E2" t="n">
-        <v>256395.3626055529</v>
+        <v>256395.362605553</v>
       </c>
       <c r="F2" t="n">
         <v>256395.362605553</v>
       </c>
       <c r="G2" t="n">
-        <v>256395.3626055529</v>
+        <v>256395.362605553</v>
       </c>
       <c r="H2" t="n">
         <v>256395.3626055529</v>
       </c>
       <c r="I2" t="n">
-        <v>256395.3626055529</v>
+        <v>256395.362605553</v>
       </c>
       <c r="J2" t="n">
         <v>258103.1614765391</v>
       </c>
       <c r="K2" t="n">
-        <v>258103.161476539</v>
+        <v>258103.1614765391</v>
       </c>
       <c r="L2" t="n">
         <v>258103.161476539</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="O2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.575205892</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>639598.3910328815</v>
+        <v>639598.3910328809</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257371.5071467814</v>
+        <v>257371.507146782</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>169461.7256516755</v>
+        <v>169461.7256516756</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,40 +26424,40 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>26084.25031398453</v>
+        <v>26084.25031398469</v>
       </c>
       <c r="F4" t="n">
-        <v>26084.25031398457</v>
+        <v>26084.25031398471</v>
       </c>
       <c r="G4" t="n">
-        <v>26084.25031398457</v>
+        <v>26084.25031398469</v>
       </c>
       <c r="H4" t="n">
-        <v>26084.25031398457</v>
+        <v>26084.25031398464</v>
       </c>
       <c r="I4" t="n">
-        <v>26084.25031398457</v>
+        <v>26084.25031398464</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
-        <v>18148.49231918995</v>
-      </c>
       <c r="L4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
+        <v>33605.65329740896</v>
+      </c>
+      <c r="N4" t="n">
         <v>33605.65329740899</v>
       </c>
-      <c r="N4" t="n">
-        <v>33605.65329740897</v>
-      </c>
       <c r="O4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740902</v>
       </c>
     </row>
     <row r="5">
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26522,46 +26522,46 @@
         <v>-589337.0689291898</v>
       </c>
       <c r="C6" t="n">
-        <v>630.8102853549062</v>
+        <v>630.8102853547898</v>
       </c>
       <c r="D6" t="n">
-        <v>630.8102853546152</v>
+        <v>630.8102853546734</v>
       </c>
       <c r="E6" t="n">
-        <v>-503762.4868882571</v>
+        <v>-503842.8192928745</v>
       </c>
       <c r="F6" t="n">
-        <v>135835.9041446245</v>
+        <v>135755.5717400063</v>
       </c>
       <c r="G6" t="n">
-        <v>135835.9041446244</v>
+        <v>135755.5717400063</v>
       </c>
       <c r="H6" t="n">
-        <v>135835.9041446244</v>
+        <v>135755.5717400063</v>
       </c>
       <c r="I6" t="n">
-        <v>135835.9041446244</v>
+        <v>135755.5717400064</v>
       </c>
       <c r="J6" t="n">
-        <v>-113800.3562431459</v>
+        <v>-113867.5517333722</v>
       </c>
       <c r="K6" t="n">
-        <v>143571.1509036355</v>
+        <v>143503.9554134097</v>
       </c>
       <c r="L6" t="n">
-        <v>143571.1509036354</v>
+        <v>143503.9554134097</v>
       </c>
       <c r="M6" t="n">
-        <v>-36561.47475729455</v>
+        <v>-36561.47475729448</v>
       </c>
       <c r="N6" t="n">
+        <v>132900.2508943812</v>
+      </c>
+      <c r="O6" t="n">
         <v>132900.2508943809</v>
       </c>
-      <c r="O6" t="n">
-        <v>132900.250894381</v>
-      </c>
       <c r="P6" t="n">
-        <v>132900.2508943811</v>
+        <v>132900.2508943809</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.890570133196781e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.890570133196781e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.890570133196781e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.890570133196781e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.890570133196781e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,7 +26716,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859255</v>
@@ -26725,7 +26725,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26741,22 +26741,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>977.1781788020946</v>
+        <v>977.1781788020937</v>
       </c>
       <c r="F3" t="n">
-        <v>977.1781788020946</v>
+        <v>977.1781788020937</v>
       </c>
       <c r="G3" t="n">
-        <v>977.1781788020946</v>
+        <v>977.1781788020937</v>
       </c>
       <c r="H3" t="n">
-        <v>977.1781788020946</v>
+        <v>977.1781788020937</v>
       </c>
       <c r="I3" t="n">
-        <v>977.1781788020946</v>
+        <v>977.1781788020937</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1203.498747517406</v>
+        <v>1203.498747517407</v>
       </c>
       <c r="F4" t="n">
-        <v>1203.498747517406</v>
+        <v>1203.498747517407</v>
       </c>
       <c r="G4" t="n">
-        <v>1203.498747517406</v>
+        <v>1203.498747517407</v>
       </c>
       <c r="H4" t="n">
-        <v>1203.498747517406</v>
+        <v>1203.498747517407</v>
       </c>
       <c r="I4" t="n">
-        <v>1203.498747517406</v>
+        <v>1203.498747517407</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.890570133196781e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>599.4345145850077</v>
+        <v>599.4345145850069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>112.5985217912037</v>
+        <v>112.5985217912046</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.2114747628507</v>
+        <v>529.2114747628509</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>665.3014558420795</v>
+        <v>665.3014558420791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628507</v>
+        <v>529.2114747628511</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.890570133196781e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.2114747628507</v>
+        <v>529.2114747628509</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>43.24943062578222</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>95.75514455339197</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>33.14692887354677</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>29.20387697634679</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>234.9188799907854</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>124.1457077469498</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.70623310284957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>27.16725215060544</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>85.64337728108057</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>7.296885925612656</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>19.61183632702233</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>264.2359569462976</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>4.593407584711758e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31531,28 +31531,28 @@
         <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
         <v>76.7639270839648</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,16 +31674,16 @@
         <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,19 +31692,19 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646605</v>
       </c>
       <c r="H11" t="n">
-        <v>40.23126039661084</v>
+        <v>40.2312603966108</v>
       </c>
       <c r="I11" t="n">
-        <v>151.447886384996</v>
+        <v>151.4478863849959</v>
       </c>
       <c r="J11" t="n">
-        <v>333.4141766958966</v>
+        <v>333.4141766958963</v>
       </c>
       <c r="K11" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579772</v>
       </c>
       <c r="L11" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092922</v>
       </c>
       <c r="M11" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289774</v>
       </c>
       <c r="N11" t="n">
-        <v>700.9461121170041</v>
+        <v>700.9461121170034</v>
       </c>
       <c r="O11" t="n">
-        <v>661.883537180468</v>
+        <v>661.8835371804674</v>
       </c>
       <c r="P11" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666918</v>
       </c>
       <c r="Q11" t="n">
-        <v>424.218090677848</v>
+        <v>424.2180906778476</v>
       </c>
       <c r="R11" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846313</v>
       </c>
       <c r="S11" t="n">
-        <v>89.51737788724718</v>
+        <v>89.51737788724711</v>
       </c>
       <c r="T11" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967302</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3142683590117286</v>
+        <v>0.3142683590117283</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630919</v>
       </c>
       <c r="H12" t="n">
-        <v>20.29949386530389</v>
+        <v>20.29949386530388</v>
       </c>
       <c r="I12" t="n">
-        <v>72.36649720374004</v>
+        <v>72.36649720373997</v>
       </c>
       <c r="J12" t="n">
-        <v>198.5791995243012</v>
+        <v>198.579199524301</v>
       </c>
       <c r="K12" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165725</v>
       </c>
       <c r="L12" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867703</v>
       </c>
       <c r="M12" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447141</v>
       </c>
       <c r="N12" t="n">
-        <v>546.6574417432586</v>
+        <v>546.6574417432581</v>
       </c>
       <c r="O12" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950677</v>
       </c>
       <c r="P12" t="n">
-        <v>401.3621089498641</v>
+        <v>401.3621089498638</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.2999407156242</v>
+        <v>268.299940715624</v>
       </c>
       <c r="R12" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804004</v>
       </c>
       <c r="S12" t="n">
-        <v>39.0410338417629</v>
+        <v>39.04103384176287</v>
       </c>
       <c r="T12" t="n">
-        <v>8.471950436972874</v>
+        <v>8.471950436972866</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625605</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.762124584725088</v>
+        <v>1.762124584725087</v>
       </c>
       <c r="H13" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964669</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700536</v>
       </c>
       <c r="J13" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400636</v>
       </c>
       <c r="K13" t="n">
-        <v>204.726838116242</v>
+        <v>204.7268381162419</v>
       </c>
       <c r="L13" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054007</v>
       </c>
       <c r="M13" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128606</v>
       </c>
       <c r="N13" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061582</v>
       </c>
       <c r="O13" t="n">
-        <v>249.068300393688</v>
+        <v>249.0683003936878</v>
       </c>
       <c r="P13" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652959</v>
       </c>
       <c r="Q13" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991162</v>
       </c>
       <c r="R13" t="n">
-        <v>79.2315290550026</v>
+        <v>79.23152905500253</v>
       </c>
       <c r="S13" t="n">
-        <v>30.7090257174363</v>
+        <v>30.70902571743628</v>
       </c>
       <c r="T13" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098097</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09611588643955039</v>
+        <v>0.0961158864395503</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646605</v>
       </c>
       <c r="H14" t="n">
-        <v>40.23126039661084</v>
+        <v>40.2312603966108</v>
       </c>
       <c r="I14" t="n">
-        <v>151.447886384996</v>
+        <v>151.4478863849959</v>
       </c>
       <c r="J14" t="n">
-        <v>333.4141766958966</v>
+        <v>333.4141766958963</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579772</v>
       </c>
       <c r="L14" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092922</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289774</v>
       </c>
       <c r="N14" t="n">
-        <v>700.9461121170041</v>
+        <v>700.9461121170034</v>
       </c>
       <c r="O14" t="n">
-        <v>661.883537180468</v>
+        <v>661.8835371804674</v>
       </c>
       <c r="P14" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666918</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.218090677848</v>
+        <v>424.2180906778476</v>
       </c>
       <c r="R14" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846313</v>
       </c>
       <c r="S14" t="n">
-        <v>89.51737788724718</v>
+        <v>89.51737788724711</v>
       </c>
       <c r="T14" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967302</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3142683590117286</v>
+        <v>0.3142683590117283</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630919</v>
       </c>
       <c r="H15" t="n">
-        <v>20.29949386530389</v>
+        <v>20.29949386530388</v>
       </c>
       <c r="I15" t="n">
-        <v>72.36649720374004</v>
+        <v>72.36649720373997</v>
       </c>
       <c r="J15" t="n">
-        <v>198.5791995243012</v>
+        <v>198.579199524301</v>
       </c>
       <c r="K15" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165725</v>
       </c>
       <c r="L15" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867703</v>
       </c>
       <c r="M15" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447141</v>
       </c>
       <c r="N15" t="n">
-        <v>546.6574417432586</v>
+        <v>546.6574417432581</v>
       </c>
       <c r="O15" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950677</v>
       </c>
       <c r="P15" t="n">
-        <v>401.3621089498641</v>
+        <v>401.3621089498638</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.2999407156242</v>
+        <v>268.299940715624</v>
       </c>
       <c r="R15" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804004</v>
       </c>
       <c r="S15" t="n">
-        <v>39.0410338417629</v>
+        <v>39.04103384176287</v>
       </c>
       <c r="T15" t="n">
-        <v>8.471950436972874</v>
+        <v>8.471950436972866</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625605</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.762124584725088</v>
+        <v>1.762124584725087</v>
       </c>
       <c r="H16" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964669</v>
       </c>
       <c r="I16" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700536</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400636</v>
       </c>
       <c r="K16" t="n">
-        <v>204.726838116242</v>
+        <v>204.7268381162419</v>
       </c>
       <c r="L16" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054007</v>
       </c>
       <c r="M16" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128606</v>
       </c>
       <c r="N16" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061582</v>
       </c>
       <c r="O16" t="n">
-        <v>249.068300393688</v>
+        <v>249.0683003936878</v>
       </c>
       <c r="P16" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652959</v>
       </c>
       <c r="Q16" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991162</v>
       </c>
       <c r="R16" t="n">
-        <v>79.2315290550026</v>
+        <v>79.23152905500253</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7090257174363</v>
+        <v>30.70902571743628</v>
       </c>
       <c r="T16" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098097</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09611588643955039</v>
+        <v>0.0961158864395503</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646605</v>
       </c>
       <c r="H17" t="n">
-        <v>40.23126039661084</v>
+        <v>40.2312603966108</v>
       </c>
       <c r="I17" t="n">
-        <v>151.447886384996</v>
+        <v>151.4478863849959</v>
       </c>
       <c r="J17" t="n">
-        <v>333.4141766958966</v>
+        <v>333.4141766958963</v>
       </c>
       <c r="K17" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579772</v>
       </c>
       <c r="L17" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092922</v>
       </c>
       <c r="M17" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289774</v>
       </c>
       <c r="N17" t="n">
-        <v>700.9461121170041</v>
+        <v>700.9461121170034</v>
       </c>
       <c r="O17" t="n">
-        <v>661.883537180468</v>
+        <v>661.8835371804674</v>
       </c>
       <c r="P17" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666918</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.218090677848</v>
+        <v>424.2180906778476</v>
       </c>
       <c r="R17" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846313</v>
       </c>
       <c r="S17" t="n">
-        <v>89.51737788724718</v>
+        <v>89.51737788724711</v>
       </c>
       <c r="T17" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967302</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3142683590117286</v>
+        <v>0.3142683590117283</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630919</v>
       </c>
       <c r="H18" t="n">
-        <v>20.29949386530389</v>
+        <v>20.29949386530388</v>
       </c>
       <c r="I18" t="n">
-        <v>72.36649720374004</v>
+        <v>72.36649720373997</v>
       </c>
       <c r="J18" t="n">
-        <v>198.5791995243012</v>
+        <v>198.579199524301</v>
       </c>
       <c r="K18" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165725</v>
       </c>
       <c r="L18" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867703</v>
       </c>
       <c r="M18" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447141</v>
       </c>
       <c r="N18" t="n">
-        <v>546.6574417432586</v>
+        <v>546.6574417432581</v>
       </c>
       <c r="O18" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950677</v>
       </c>
       <c r="P18" t="n">
-        <v>401.3621089498641</v>
+        <v>401.3621089498638</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.2999407156242</v>
+        <v>268.299940715624</v>
       </c>
       <c r="R18" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804004</v>
       </c>
       <c r="S18" t="n">
-        <v>39.0410338417629</v>
+        <v>39.04103384176287</v>
       </c>
       <c r="T18" t="n">
-        <v>8.471950436972874</v>
+        <v>8.471950436972866</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625605</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.762124584725088</v>
+        <v>1.762124584725087</v>
       </c>
       <c r="H19" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964669</v>
       </c>
       <c r="I19" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700536</v>
       </c>
       <c r="J19" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400636</v>
       </c>
       <c r="K19" t="n">
-        <v>204.726838116242</v>
+        <v>204.7268381162419</v>
       </c>
       <c r="L19" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054007</v>
       </c>
       <c r="M19" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128606</v>
       </c>
       <c r="N19" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061582</v>
       </c>
       <c r="O19" t="n">
-        <v>249.068300393688</v>
+        <v>249.0683003936878</v>
       </c>
       <c r="P19" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652959</v>
       </c>
       <c r="Q19" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991162</v>
       </c>
       <c r="R19" t="n">
-        <v>79.2315290550026</v>
+        <v>79.23152905500253</v>
       </c>
       <c r="S19" t="n">
-        <v>30.7090257174363</v>
+        <v>30.70902571743628</v>
       </c>
       <c r="T19" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098097</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09611588643955039</v>
+        <v>0.0961158864395503</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646605</v>
       </c>
       <c r="H20" t="n">
-        <v>40.23126039661084</v>
+        <v>40.2312603966108</v>
       </c>
       <c r="I20" t="n">
-        <v>151.447886384996</v>
+        <v>151.4478863849959</v>
       </c>
       <c r="J20" t="n">
-        <v>333.4141766958966</v>
+        <v>333.4141766958963</v>
       </c>
       <c r="K20" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579772</v>
       </c>
       <c r="L20" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092922</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289774</v>
       </c>
       <c r="N20" t="n">
-        <v>700.9461121170041</v>
+        <v>700.9461121170034</v>
       </c>
       <c r="O20" t="n">
-        <v>661.883537180468</v>
+        <v>661.8835371804674</v>
       </c>
       <c r="P20" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666918</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.218090677848</v>
+        <v>424.2180906778476</v>
       </c>
       <c r="R20" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846313</v>
       </c>
       <c r="S20" t="n">
-        <v>89.51737788724718</v>
+        <v>89.51737788724711</v>
       </c>
       <c r="T20" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967302</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3142683590117286</v>
+        <v>0.3142683590117283</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630919</v>
       </c>
       <c r="H21" t="n">
-        <v>20.29949386530389</v>
+        <v>20.29949386530388</v>
       </c>
       <c r="I21" t="n">
-        <v>72.36649720374004</v>
+        <v>72.36649720373997</v>
       </c>
       <c r="J21" t="n">
-        <v>198.5791995243012</v>
+        <v>198.579199524301</v>
       </c>
       <c r="K21" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165725</v>
       </c>
       <c r="L21" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867703</v>
       </c>
       <c r="M21" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447141</v>
       </c>
       <c r="N21" t="n">
-        <v>546.6574417432586</v>
+        <v>546.6574417432581</v>
       </c>
       <c r="O21" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950677</v>
       </c>
       <c r="P21" t="n">
-        <v>401.3621089498641</v>
+        <v>401.3621089498638</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.2999407156242</v>
+        <v>268.299940715624</v>
       </c>
       <c r="R21" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804004</v>
       </c>
       <c r="S21" t="n">
-        <v>39.0410338417629</v>
+        <v>39.04103384176287</v>
       </c>
       <c r="T21" t="n">
-        <v>8.471950436972874</v>
+        <v>8.471950436972866</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625605</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.762124584725088</v>
+        <v>1.762124584725087</v>
       </c>
       <c r="H22" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964669</v>
       </c>
       <c r="I22" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700536</v>
       </c>
       <c r="J22" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400636</v>
       </c>
       <c r="K22" t="n">
-        <v>204.726838116242</v>
+        <v>204.7268381162419</v>
       </c>
       <c r="L22" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054007</v>
       </c>
       <c r="M22" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128606</v>
       </c>
       <c r="N22" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061582</v>
       </c>
       <c r="O22" t="n">
-        <v>249.068300393688</v>
+        <v>249.0683003936878</v>
       </c>
       <c r="P22" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652959</v>
       </c>
       <c r="Q22" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991162</v>
       </c>
       <c r="R22" t="n">
-        <v>79.2315290550026</v>
+        <v>79.23152905500253</v>
       </c>
       <c r="S22" t="n">
-        <v>30.7090257174363</v>
+        <v>30.70902571743628</v>
       </c>
       <c r="T22" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098097</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09611588643955039</v>
+        <v>0.0961158864395503</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.928354487646609</v>
+        <v>3.928354487646605</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23126039661084</v>
+        <v>40.2312603966108</v>
       </c>
       <c r="I23" t="n">
-        <v>151.447886384996</v>
+        <v>151.4478863849959</v>
       </c>
       <c r="J23" t="n">
-        <v>333.4141766958966</v>
+        <v>333.4141766958963</v>
       </c>
       <c r="K23" t="n">
-        <v>499.7014221579777</v>
+        <v>499.7014221579772</v>
       </c>
       <c r="L23" t="n">
-        <v>619.9238008092927</v>
+        <v>619.9238008092922</v>
       </c>
       <c r="M23" t="n">
-        <v>689.7846749289781</v>
+        <v>689.7846749289774</v>
       </c>
       <c r="N23" t="n">
-        <v>700.9461121170041</v>
+        <v>700.9461121170034</v>
       </c>
       <c r="O23" t="n">
-        <v>661.883537180468</v>
+        <v>661.8835371804674</v>
       </c>
       <c r="P23" t="n">
-        <v>564.9022857666923</v>
+        <v>564.9022857666918</v>
       </c>
       <c r="Q23" t="n">
-        <v>424.218090677848</v>
+        <v>424.2180906778476</v>
       </c>
       <c r="R23" t="n">
-        <v>246.7644975846315</v>
+        <v>246.7644975846313</v>
       </c>
       <c r="S23" t="n">
-        <v>89.51737788724718</v>
+        <v>89.51737788724711</v>
       </c>
       <c r="T23" t="n">
-        <v>17.19637176967304</v>
+        <v>17.19637176967302</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3142683590117286</v>
+        <v>0.3142683590117283</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.101854950630921</v>
+        <v>2.101854950630919</v>
       </c>
       <c r="H24" t="n">
-        <v>20.29949386530389</v>
+        <v>20.29949386530388</v>
       </c>
       <c r="I24" t="n">
-        <v>72.36649720374004</v>
+        <v>72.36649720373997</v>
       </c>
       <c r="J24" t="n">
-        <v>198.5791995243012</v>
+        <v>198.579199524301</v>
       </c>
       <c r="K24" t="n">
-        <v>339.4034812165729</v>
+        <v>339.4034812165725</v>
       </c>
       <c r="L24" t="n">
-        <v>456.3698654867708</v>
+        <v>456.3698654867703</v>
       </c>
       <c r="M24" t="n">
-        <v>532.5621074471416</v>
+        <v>532.562107447141</v>
       </c>
       <c r="N24" t="n">
-        <v>546.6574417432586</v>
+        <v>546.6574417432581</v>
       </c>
       <c r="O24" t="n">
-        <v>500.0847609950682</v>
+        <v>500.0847609950677</v>
       </c>
       <c r="P24" t="n">
-        <v>401.3621089498641</v>
+        <v>401.3621089498638</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.2999407156242</v>
+        <v>268.299940715624</v>
       </c>
       <c r="R24" t="n">
-        <v>130.4993801804005</v>
+        <v>130.4993801804004</v>
       </c>
       <c r="S24" t="n">
-        <v>39.0410338417629</v>
+        <v>39.04103384176287</v>
       </c>
       <c r="T24" t="n">
-        <v>8.471950436972874</v>
+        <v>8.471950436972866</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1382799309625606</v>
+        <v>0.1382799309625605</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.762124584725088</v>
+        <v>1.762124584725087</v>
       </c>
       <c r="H25" t="n">
-        <v>15.66688948964671</v>
+        <v>15.66688948964669</v>
       </c>
       <c r="I25" t="n">
-        <v>52.99189205700541</v>
+        <v>52.99189205700536</v>
       </c>
       <c r="J25" t="n">
-        <v>124.5822081400638</v>
+        <v>124.5822081400636</v>
       </c>
       <c r="K25" t="n">
-        <v>204.726838116242</v>
+        <v>204.7268381162419</v>
       </c>
       <c r="L25" t="n">
-        <v>261.9798678054009</v>
+        <v>261.9798678054007</v>
       </c>
       <c r="M25" t="n">
-        <v>276.2210383128609</v>
+        <v>276.2210383128606</v>
       </c>
       <c r="N25" t="n">
-        <v>269.6531194061585</v>
+        <v>269.6531194061582</v>
       </c>
       <c r="O25" t="n">
-        <v>249.068300393688</v>
+        <v>249.0683003936878</v>
       </c>
       <c r="P25" t="n">
-        <v>213.1209588652961</v>
+        <v>213.1209588652959</v>
       </c>
       <c r="Q25" t="n">
-        <v>147.5539049991163</v>
+        <v>147.5539049991162</v>
       </c>
       <c r="R25" t="n">
-        <v>79.2315290550026</v>
+        <v>79.23152905500253</v>
       </c>
       <c r="S25" t="n">
-        <v>30.7090257174363</v>
+        <v>30.70902571743628</v>
       </c>
       <c r="T25" t="n">
-        <v>7.529077771098104</v>
+        <v>7.529077771098097</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09611588643955039</v>
+        <v>0.0961158864395503</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35188,7 +35188,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35252,7 +35252,7 @@
         <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047519</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713858</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>152.3682721692103</v>
+        <v>152.3682721692101</v>
       </c>
       <c r="K11" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841615</v>
       </c>
       <c r="L11" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897554</v>
       </c>
       <c r="M11" t="n">
-        <v>908.9519751945379</v>
+        <v>908.9519751945372</v>
       </c>
       <c r="N11" t="n">
-        <v>908.8799729323973</v>
+        <v>471.5330485204125</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5855070215266</v>
+        <v>812.585507021526</v>
       </c>
       <c r="P11" t="n">
-        <v>343.9161060832317</v>
+        <v>655.4679981829049</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.9124008033985</v>
+        <v>327.7074331157142</v>
       </c>
       <c r="R11" t="n">
-        <v>31.17895977049938</v>
+        <v>31.17895977049915</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.74157285763448</v>
+        <v>71.74157285763428</v>
       </c>
       <c r="K12" t="n">
-        <v>201.5620422422139</v>
+        <v>201.5620422422135</v>
       </c>
       <c r="L12" t="n">
-        <v>317.8154857068966</v>
+        <v>317.8154857068961</v>
       </c>
       <c r="M12" t="n">
-        <v>770.4167579265549</v>
+        <v>390.4280735251227</v>
       </c>
       <c r="N12" t="n">
-        <v>415.3157296599253</v>
+        <v>415.3157296599248</v>
       </c>
       <c r="O12" t="n">
-        <v>357.4885165506237</v>
+        <v>737.4772009520583</v>
       </c>
       <c r="P12" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355336</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.3181666296027</v>
+        <v>128.3181666296024</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>31.22302802339098</v>
+        <v>31.22302802339085</v>
       </c>
       <c r="K13" t="n">
-        <v>182.4573462903592</v>
+        <v>182.457346290359</v>
       </c>
       <c r="L13" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657168</v>
       </c>
       <c r="M13" t="n">
-        <v>315.8049152747014</v>
+        <v>315.8049152747012</v>
       </c>
       <c r="N13" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853868</v>
       </c>
       <c r="O13" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077275</v>
       </c>
       <c r="P13" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301894</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742177</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>152.3682721692103</v>
+        <v>152.3682721692101</v>
       </c>
       <c r="K14" t="n">
-        <v>292.2050915844883</v>
+        <v>603.7569836841615</v>
       </c>
       <c r="L14" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897554</v>
       </c>
       <c r="M14" t="n">
-        <v>908.9519751945379</v>
+        <v>908.9519751945372</v>
       </c>
       <c r="N14" t="n">
-        <v>908.8799729323973</v>
+        <v>908.8799729323966</v>
       </c>
       <c r="O14" t="n">
-        <v>812.5855070215266</v>
+        <v>812.585507021526</v>
       </c>
       <c r="P14" t="n">
-        <v>655.4679981829054</v>
+        <v>343.9161060832372</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.9124008033985</v>
+        <v>201.9124008033981</v>
       </c>
       <c r="R14" t="n">
-        <v>31.17895977049938</v>
+        <v>31.17895977049915</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>71.74157285763448</v>
+        <v>71.74157285763428</v>
       </c>
       <c r="K15" t="n">
-        <v>201.5620422422139</v>
+        <v>466.0272792547921</v>
       </c>
       <c r="L15" t="n">
-        <v>688.6558310103558</v>
+        <v>317.8154857068961</v>
       </c>
       <c r="M15" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251227</v>
       </c>
       <c r="N15" t="n">
-        <v>415.3157296599253</v>
+        <v>415.3157296599248</v>
       </c>
       <c r="O15" t="n">
-        <v>357.4885165506237</v>
+        <v>357.4885165506233</v>
       </c>
       <c r="P15" t="n">
-        <v>276.5360406335064</v>
+        <v>267.3877015355336</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.3181666296027</v>
+        <v>243.8416140184582</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>31.22302802339098</v>
+        <v>31.22302802339085</v>
       </c>
       <c r="K16" t="n">
-        <v>182.4573462903592</v>
+        <v>182.457346290359</v>
       </c>
       <c r="L16" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657168</v>
       </c>
       <c r="M16" t="n">
-        <v>315.8049152747014</v>
+        <v>315.8049152747012</v>
       </c>
       <c r="N16" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853868</v>
       </c>
       <c r="O16" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077321</v>
       </c>
       <c r="P16" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301894</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742177</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>152.3682721692103</v>
+        <v>152.3682721692101</v>
       </c>
       <c r="K17" t="n">
-        <v>529.4036344174158</v>
+        <v>603.7569836841615</v>
       </c>
       <c r="L17" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897554</v>
       </c>
       <c r="M17" t="n">
-        <v>459.4384417017054</v>
+        <v>908.9519751945372</v>
       </c>
       <c r="N17" t="n">
-        <v>908.8799729323973</v>
+        <v>908.8799729323966</v>
       </c>
       <c r="O17" t="n">
-        <v>812.5855070215266</v>
+        <v>812.585507021526</v>
       </c>
       <c r="P17" t="n">
-        <v>655.4679981829054</v>
+        <v>343.9161060832372</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.2273914633032</v>
+        <v>201.9124008033981</v>
       </c>
       <c r="R17" t="n">
-        <v>31.17895977049938</v>
+        <v>31.17895977049915</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.74157285763448</v>
+        <v>71.74157285763428</v>
       </c>
       <c r="K18" t="n">
-        <v>371.4734389077964</v>
+        <v>201.5620422422135</v>
       </c>
       <c r="L18" t="n">
-        <v>317.8154857068966</v>
+        <v>317.8154857068961</v>
       </c>
       <c r="M18" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251227</v>
       </c>
       <c r="N18" t="n">
-        <v>415.3157296599253</v>
+        <v>415.3157296599248</v>
       </c>
       <c r="O18" t="n">
-        <v>357.4885165506237</v>
+        <v>357.4885165506233</v>
       </c>
       <c r="P18" t="n">
-        <v>267.3877015355339</v>
+        <v>585.8504701754707</v>
       </c>
       <c r="Q18" t="n">
-        <v>338.3954543654518</v>
+        <v>189.8440823910999</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>31.22302802339098</v>
+        <v>31.22302802339085</v>
       </c>
       <c r="K19" t="n">
-        <v>182.4573462903592</v>
+        <v>182.4573462903621</v>
       </c>
       <c r="L19" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657168</v>
       </c>
       <c r="M19" t="n">
-        <v>315.8049152747014</v>
+        <v>315.8049152747012</v>
       </c>
       <c r="N19" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853868</v>
       </c>
       <c r="O19" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077275</v>
       </c>
       <c r="P19" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301894</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742177</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>152.3682721692103</v>
+        <v>152.3682721692101</v>
       </c>
       <c r="K20" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841615</v>
       </c>
       <c r="L20" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897554</v>
       </c>
       <c r="M20" t="n">
-        <v>908.9519751945379</v>
+        <v>908.9519751945372</v>
       </c>
       <c r="N20" t="n">
-        <v>908.8799729323973</v>
+        <v>908.8799729323966</v>
       </c>
       <c r="O20" t="n">
-        <v>812.5855070215266</v>
+        <v>812.585507021526</v>
       </c>
       <c r="P20" t="n">
-        <v>343.9161060832317</v>
+        <v>343.9161060832372</v>
       </c>
       <c r="Q20" t="n">
-        <v>201.9124008033985</v>
+        <v>201.9124008033981</v>
       </c>
       <c r="R20" t="n">
-        <v>31.17895977049938</v>
+        <v>31.17895977049915</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.74157285763448</v>
+        <v>71.74157285763428</v>
       </c>
       <c r="K21" t="n">
-        <v>371.4734389077964</v>
+        <v>201.5620422422135</v>
       </c>
       <c r="L21" t="n">
-        <v>317.8154857068966</v>
+        <v>317.8154857068961</v>
       </c>
       <c r="M21" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251227</v>
       </c>
       <c r="N21" t="n">
-        <v>415.3157296599253</v>
+        <v>415.3157296599248</v>
       </c>
       <c r="O21" t="n">
-        <v>357.4885165506237</v>
+        <v>357.4885165506233</v>
       </c>
       <c r="P21" t="n">
-        <v>267.3877015355339</v>
+        <v>585.8504701754707</v>
       </c>
       <c r="Q21" t="n">
-        <v>338.3954543654518</v>
+        <v>189.8440823910999</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>31.22302802339098</v>
+        <v>31.22302802339089</v>
       </c>
       <c r="K22" t="n">
-        <v>182.4573462903592</v>
+        <v>182.457346290359</v>
       </c>
       <c r="L22" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657168</v>
       </c>
       <c r="M22" t="n">
-        <v>315.8049152747014</v>
+        <v>315.8049152747012</v>
       </c>
       <c r="N22" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853868</v>
       </c>
       <c r="O22" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077276</v>
       </c>
       <c r="P22" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301894</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742177</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>152.3682721692103</v>
+        <v>152.3682721692101</v>
       </c>
       <c r="K23" t="n">
-        <v>603.7569836841619</v>
+        <v>603.7569836841615</v>
       </c>
       <c r="L23" t="n">
-        <v>801.8186003897559</v>
+        <v>801.8186003897554</v>
       </c>
       <c r="M23" t="n">
-        <v>908.9519751945379</v>
+        <v>908.9519751945372</v>
       </c>
       <c r="N23" t="n">
-        <v>908.8799729323973</v>
+        <v>908.8799729323966</v>
       </c>
       <c r="O23" t="n">
-        <v>812.5855070215266</v>
+        <v>812.585507021526</v>
       </c>
       <c r="P23" t="n">
-        <v>343.9161060832317</v>
+        <v>343.9161060832363</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.9124008033985</v>
+        <v>201.9124008033981</v>
       </c>
       <c r="R23" t="n">
-        <v>31.17895977049938</v>
+        <v>31.17895977049915</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>71.74157285763448</v>
+        <v>71.74157285763428</v>
       </c>
       <c r="K24" t="n">
-        <v>371.4734389077964</v>
+        <v>466.0272792547921</v>
       </c>
       <c r="L24" t="n">
-        <v>317.8154857068966</v>
+        <v>317.8154857068961</v>
       </c>
       <c r="M24" t="n">
-        <v>390.4280735251232</v>
+        <v>390.4280735251227</v>
       </c>
       <c r="N24" t="n">
-        <v>415.3157296599253</v>
+        <v>415.3157296599248</v>
       </c>
       <c r="O24" t="n">
-        <v>357.4885165506237</v>
+        <v>357.4885165506233</v>
       </c>
       <c r="P24" t="n">
-        <v>267.3877015355339</v>
+        <v>267.3877015355336</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.3954543654518</v>
+        <v>243.8416140184582</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>31.22302802339098</v>
+        <v>31.2230280233909</v>
       </c>
       <c r="K25" t="n">
-        <v>182.4573462903592</v>
+        <v>182.457346290359</v>
       </c>
       <c r="L25" t="n">
-        <v>289.5698930657171</v>
+        <v>289.5698930657168</v>
       </c>
       <c r="M25" t="n">
-        <v>315.8049152747014</v>
+        <v>315.8049152747012</v>
       </c>
       <c r="N25" t="n">
-        <v>313.7852917853871</v>
+        <v>313.7852917853868</v>
       </c>
       <c r="O25" t="n">
-        <v>273.6534283077277</v>
+        <v>273.6534283077276</v>
       </c>
       <c r="P25" t="n">
-        <v>210.3995181301896</v>
+        <v>210.3995181301894</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.39186174742191</v>
+        <v>61.39186174742177</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>526.9910873446648</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36604,10 +36604,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>295.1846720234602</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37792,7 +37792,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>840.3496503690146</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,16 +38181,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
